--- a/public/preprocessing/@Tri_Rismaharini.xlsx
+++ b/public/preprocessing/@Tri_Rismaharini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>22170</v>
+        <v>30547</v>
       </c>
       <c r="C2" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -488,15 +493,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -507,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22171</v>
+        <v>30548</v>
       </c>
       <c r="C3" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -524,15 +534,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['selamat', 'bertanding', 'persebaya', 'bawa', 'bangga', 'kota', 'surabaya']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>['selamat', 'bertanding', 'persebaya', 'bawa', 'bangga', 'kota', 'surabaya']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>['selamat', 'tanding', 'baya', 'bawa', 'bangga', 'kota', 'surabaya']</t>
         </is>
@@ -543,10 +558,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22172</v>
+        <v>30549</v>
       </c>
       <c r="C4" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -560,17 +575,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['rt', 'di', 'acara', 'ini', 'wali', 'kota', 'surabaya', 'meminta', 'para', 'teman', 'pasukan', 'kuning', 'ini', 'untuk', 'lebih', 'memperhatikan', 'pendidikan', 'anak', 'saya']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['acara', 'wali', 'kota', 'surabaya', 'teman', 'pasukan', 'kuning', 'memperhatikan', 'pendidikan', 'anak', 'ana']</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['acara', 'wali', 'kota', 'surabaya', 'teman', 'pasu', 'kuning', 'perhati', 'didik', 'anak', 'ana']</t>
+          <t>['acara', 'wali', 'kota', 'surabaya', 'teman', 'pasukan', 'kuning', 'memperhatikan', 'pendidikan', 'anak']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['acara', 'wali', 'kota', 'surabaya', 'teman', 'pasu', 'kuning', 'perhati', 'didik', 'anak']</t>
         </is>
       </c>
     </row>
@@ -579,10 +599,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22173</v>
+        <v>30550</v>
       </c>
       <c r="C5" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -596,15 +616,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'pahlawan', 'november']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>['selamat', 'pahlawan', 'november']</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>['selamat', 'pahlawan', 'november']</t>
         </is>
@@ -615,10 +640,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22174</v>
+        <v>30551</v>
       </c>
       <c r="C6" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -632,15 +657,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['surabaya', 'membara']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>['surabaya', 'membara']</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>['surabaya', 'bara']</t>
         </is>
@@ -651,10 +681,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22175</v>
+        <v>30552</v>
       </c>
       <c r="C7" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -668,17 +698,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['rt', 'ini', 'lah', 'rek', 'alasan', 'kamu', 'harus', 'arek', 'surabaya', 'di', 'uar', 'negeri', 'saja', 'bangga', 'masa', 'kamu', 'tidak']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['iki', 'rek', 'alasan', 'kudu', 'arek', 'surabaya', 'uar', 'negeri', 'bangga']</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['iki', 'rek', 'alas', 'kudu', 'arek', 'surabaya', 'uar', 'negeri', 'bangga']</t>
+          <t>['rek', 'alasan', 'arek', 'surabaya', 'uar', 'negeri', 'bangga']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['rek', 'alas', 'arek', 'surabaya', 'uar', 'negeri', 'bangga']</t>
         </is>
       </c>
     </row>
@@ -687,10 +722,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22176</v>
+        <v>30553</v>
       </c>
       <c r="C8" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -704,15 +739,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['rt', 'video', 'ambulans', 'dinas', 'sosial', 'gratis', 'untuk', 'warga', 'surabaya', 'begini', 'cara', 'pesannya', 'via']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>['video', 'ambulans', 'dinas', 'sosial', 'gratis', 'warga', 'surabaya', 'pesannya', 'via']</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>['video', 'ambulans', 'dinas', 'sosial', 'gratis', 'warga', 'surabaya', 'pesan', 'via']</t>
         </is>
@@ -723,10 +763,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22177</v>
+        <v>30554</v>
       </c>
       <c r="C9" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -740,17 +780,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['rt', 'talkshow', 'habis', 'mainan', 'selendang', 'joget', 'ternyata', 'anaknya', 'bu', 'rismaharini', 'mas', 'fuad', 'kita', 'ajak', 'menemani', 'nih', 'karena', 'susah', 'ketemu']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['talkshow', 'habis', 'mainan', 'selendang', 'joget', 'anaknya', 'bu', 'rismaharini', 'mas', 'fuad', 'ajak', 'nemenin', 'ni', 'susah', 'ketemu']</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['talkshow', 'habis', 'main', 'selendang', 'joget', 'anak', 'bu', 'rismaharini', 'mas', 'fuad', 'ajak', 'nemenin', 'ni', 'susah', 'ketemu']</t>
+          <t>['talkshow', 'habis', 'mainan', 'selendang', 'joget', 'anaknya', 'bu', 'rismaharini', 'mas', 'fuad', 'ajak', 'menemani', 'susah', 'ketemu']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['talkshow', 'habis', 'main', 'selendang', 'joget', 'anak', 'bu', 'rismaharini', 'mas', 'fuad', 'ajak', 'tani', 'susah', 'ketemu']</t>
         </is>
       </c>
     </row>
@@ -759,10 +804,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22178</v>
+        <v>30555</v>
       </c>
       <c r="C10" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -776,17 +821,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'bagaimana', 'kabarnya', 'semua', 'ada', 'yang', 'menonton', 'ibu', 'di', 'talkshow']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['assalamualaikum', 'gimana', 'kabarnya', 'nonton', 'talkshow']</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'gimana', 'kabar', 'nonton', 'talkshow']</t>
+          <t>['assalamualaikum', 'kabarnya', 'menonton', 'talkshow']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'kabar', 'tonton', 'talkshow']</t>
         </is>
       </c>
     </row>
@@ -795,10 +845,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22179</v>
+        <v>30556</v>
       </c>
       <c r="C11" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -812,17 +862,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>['rt', 'talkshow', 'sekarang', 'cak', 'suro', 'nih', 'mampir', 'ihi', 'namanya', 'sudah', 'suro', 'cocok', 'ya', 'sama', 'wali, kota', 'kita', 'bu', 'rismaharini']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['talkshow', 'cak', 'suro', 'mampir', 'ihi', 'namanya', 'udah', 'suro', 'cucok', 'walikota', 'bu', 'rismaharini']</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['talkshow', 'cak', 'suro', 'mampir', 'ihi', 'nama', 'udah', 'suro', 'cucok', 'walikota', 'bu', 'rismaharini']</t>
+          <t>['talkshow', 'cak', 'suro', 'mampir', 'ihi', 'namanya', 'suro', 'cocok', 'wali, kota', 'bu', 'rismaharini']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['talkshow', 'cak', 'suro', 'mampir', 'ihi', 'nama', 'suro', 'cocok', 'wali kota', 'bu', 'rismaharini']</t>
         </is>
       </c>
     </row>
@@ -831,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>22180</v>
+        <v>30557</v>
       </c>
       <c r="C12" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -848,15 +903,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['dirgahayu', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>['dirgahayu', 'indonesia']</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>['dirgahayu', 'indonesia']</t>
         </is>
@@ -867,10 +927,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>22181</v>
+        <v>30558</v>
       </c>
       <c r="C13" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -884,15 +944,20 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['taqabballahu', 'minna', 'wa', 'minkum', 'minal', 'aidiin', 'walfaidzin']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>['taqabballahu', 'minna', 'wa', 'minkum', 'minal', 'aidiin', 'walfaidzin']</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>['taqabballahu', 'minna', 'wa', 'minkum', 'mal', 'aidiin', 'walfaidzin']</t>
         </is>
@@ -903,10 +968,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>22182</v>
+        <v>30559</v>
       </c>
       <c r="C14" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -920,15 +985,20 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['dirgahayu', 'kota', 'surabaya', 'ke']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>['dirgahayu', 'kota', 'surabaya']</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>['dirgahayu', 'kota', 'surabaya']</t>
         </is>
@@ -939,10 +1009,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>22183</v>
+        <v>30560</v>
       </c>
       <c r="C15" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -956,15 +1026,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['rt', 'surabaya', 'mayor', 'rismaharini', 'amp', 'liverpool', 'mayor', 'anderson', 'signed', 'an', 'loi', 'on', 'sister', 'city', 'cooperationgt', 'forging', 'stro']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>['surabaya', 'mayor', 'rismaharini', 'liverpool', 'mayor', 'anderson', 'signed', 'an', 'loi', 'on', 'sister', 'city', 'cooperationgt', 'forging', 'stro']</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>['surabaya', 'mayor', 'rismaharini', 'liverpool', 'mayor', 'anderson', 'signed', 'an', 'loi', 'on', 'sister', 'city', 'cooperationgt', 'forging', 'stro']</t>
         </is>
@@ -975,10 +1050,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>22184</v>
+        <v>30561</v>
       </c>
       <c r="C16" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -992,15 +1067,20 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'buruh', 'tetap', 'tertib', 'dan', 'patuh', 'dengan', 'peraturan']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>['selamat', 'buruh', 'tertib', 'patuh', 'peraturan']</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>['selamat', 'buruh', 'tertib', 'patuh', 'atur']</t>
         </is>
@@ -1011,10 +1091,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>22185</v>
+        <v>30562</v>
       </c>
       <c r="C17" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1028,17 +1108,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['terima', 'kasih', 'semua', 'untuk', 'mentionsnya', 'maaf', 'ibu', 'tidak', 'bisa', 'balas', 'satu', 'satu', 'ibu', 'cuma', 'melihat', 'lihat', 'saja']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['terima', 'kasih', 'mentionsnya', 'maaf', 'gk', 'balas', 'cuman', 'lihat']</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'mentionsnya', 'maaf', 'gk', 'balas', 'cuman', 'lihat']</t>
+          <t>['terima', 'kasih', 'mentionsnya', 'maaf', 'balas', 'lihat']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'mentionsnya', 'maaf', 'balas', 'lihat']</t>
         </is>
       </c>
     </row>
@@ -1047,10 +1132,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>22186</v>
+        <v>30563</v>
       </c>
       <c r="C18" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1064,15 +1149,20 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'wr', 'wb']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'wr', 'wb']</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'wr', 'wb']</t>
         </is>
@@ -1083,10 +1173,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>22187</v>
+        <v>30564</v>
       </c>
       <c r="C19" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1100,17 +1190,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['rt', 'news', 'satuan, polisi', 'pp', 'surabaya', 'razia', 'permen', 'mengandung', 'narkoba', 'di', 'seluruh', 'warung', 'di', 'kota', 'surabaya', 'rismaharini']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['news', 'satpol', 'pp', 'surabaya', 'razia', 'permen', 'mengandung', 'narkoba', 'warung', 'kota', 'surabaya', 'rismaharini']</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['news', 'satpol', 'pp', 'surabaya', 'razia', 'permen', 'kandung', 'narkoba', 'warung', 'kota', 'surabaya', 'rismaharini']</t>
+          <t>['news', 'satuan, polisi', 'pp', 'surabaya', 'razia', 'permen', 'mengandung', 'narkoba', 'warung', 'kota', 'surabaya', 'rismaharini']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['news', 'satu polisi', 'pp', 'surabaya', 'razia', 'permen', 'kandung', 'narkoba', 'warung', 'kota', 'surabaya', 'rismaharini']</t>
         </is>
       </c>
     </row>
@@ -1119,10 +1214,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>22188</v>
+        <v>30565</v>
       </c>
       <c r="C20" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1136,17 +1231,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['rt', 'televisi', 'saksikan', 'amp', 'rismaharini', 'berbagi', 'kisah', 'yang', 'menginspirasi', 'di', 'indonesias', 'game', 'changers', 'mar', 'pukul', 'pm']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['tv', 'saksikan', 'rismaharini', 'berbagi', 'kisah', 'menginspirasi', 'indonesias', 'game', 'changers', 'mar', 'pkl', 'pm']</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['tv', 'saksi', 'rismaharini', 'bagi', 'kisah', 'inspirasi', 'indonesias', 'game', 'changers', 'mar', 'pkl', 'pm']</t>
+          <t>['televisi', 'saksikan', 'rismaharini', 'berbagi', 'kisah', 'menginspirasi', 'indonesias', 'game', 'changers', 'mar', 'pm']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['televisi', 'saksi', 'rismaharini', 'bagi', 'kisah', 'inspirasi', 'indonesias', 'game', 'changers', 'mar', 'pm']</t>
         </is>
       </c>
     </row>
@@ -1155,10 +1255,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>22189</v>
+        <v>30566</v>
       </c>
       <c r="C21" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1172,15 +1272,20 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['sugeng', 'sonten', 'poro', 'sedoyo']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>['sugeng', 'sonten', 'poro', 'sedoyo']</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>['sugeng', 'sonten', 'poro', 'doyo']</t>
         </is>
@@ -1191,10 +1296,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>22190</v>
+        <v>30567</v>
       </c>
       <c r="C22" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1208,15 +1313,20 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['selama', 'operasi', 'simpatik', 'polisi', 'lebih', 'banyak', 'lakukan', 'teguran', 'bukan', 'tilang', 'lewat']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>['operasi', 'simpatik', 'polisi', 'lakukan', 'teguran', 'tilang']</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>['operasi', 'simpatik', 'polisi', 'laku', 'tegur', 'tilang']</t>
         </is>
@@ -1227,10 +1337,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>22191</v>
+        <v>30568</v>
       </c>
       <c r="C23" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1244,17 +1354,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['libatkan', 'pengembang', 'tambah', 'jalan', 'di', 'bundaran', 'provides, technology, solutions', 'untuk', 'atasi', 'kemacetan', 'lewat']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>['libatkan', 'pengembang', 'jalan', 'bundaran', 'ptc', 'atasi', 'kemacetan']</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['libat', 'kembang', 'jalan', 'bundar', 'ptc', 'atas', 'macet']</t>
+          <t>['libatkan', 'pengembang', 'jalan', 'bundaran', 'provides, technology, solutions', 'atasi', 'kemacetan']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['libat', 'kembang', 'jalan', 'bundar', 'provides technology solutions', 'atas', 'macet']</t>
         </is>
       </c>
     </row>
@@ -1263,10 +1378,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>22192</v>
+        <v>30569</v>
       </c>
       <c r="C24" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1280,15 +1395,20 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'pahlawan', 'november']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>['selamat', 'pahlawan', 'november']</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>['selamat', 'pahlawan', 'november']</t>
         </is>
@@ -1299,10 +1419,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>22193</v>
+        <v>30570</v>
       </c>
       <c r="C25" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1316,15 +1436,20 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['selamat', 'pagi', 'semua']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>['selamat', 'pagi']</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>['selamat', 'pagi']</t>
         </is>
@@ -1335,10 +1460,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>22194</v>
+        <v>30571</v>
       </c>
       <c r="C26" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1352,17 +1477,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>['dirgahayu', 'republik', 'indonesia', 'tahun']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>['dirgahayu', 'republik', 'indonesia', 'th']</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['dirgahayu', 'republik', 'indonesia', 'th']</t>
+          <t>['dirgahayu', 'republik', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['dirgahayu', 'republik', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -1371,10 +1501,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>22195</v>
+        <v>30572</v>
       </c>
       <c r="C27" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1388,17 +1518,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['rt', 'metrotv', 'ini', 'kata', 'pengamat', 'terkait', 'rismaharini', 'menantang', 'ahok', 'di', 'hati']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['metrotv', 'pengamat', 'terkait', 'rismaharini', 'menantang', 'btp', 'ht']</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['metrotv', 'amat', 'kait', 'rismaharini', 'tantang', 'btp', 'ht']</t>
+          <t>['metrotv', 'pengamat', 'terkait', 'rismaharini', 'menantang', 'ahok', 'hati']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['metrotv', 'amat', 'kait', 'rismaharini', 'tantang', 'ahok', 'hati']</t>
         </is>
       </c>
     </row>
@@ -1407,10 +1542,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>22196</v>
+        <v>30573</v>
       </c>
       <c r="C28" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1424,17 +1559,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['rt', 'ahok', 'saya', 'bukan', 'mau', 'mengecilkan', 'bu', 'rismaharini', 'apalagi', 'menyakiti', 'orang', 'surabaya']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['btp', 'mengecilkan', 'bu', 'rismaharini', 'menyakiti', 'orang', 'surabaya']</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['btp', 'kecil', 'bu', 'rismaharini', 'sakit', 'orang', 'surabaya']</t>
+          <t>['ahok', 'mengecilkan', 'bu', 'rismaharini', 'menyakiti', 'orang', 'surabaya']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['ahok', 'kecil', 'bu', 'rismaharini', 'sakit', 'orang', 'surabaya']</t>
         </is>
       </c>
     </row>
@@ -1443,10 +1583,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>22197</v>
+        <v>30574</v>
       </c>
       <c r="C29" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1460,17 +1600,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['rt', 'bu', 'risma', 'bantuan', 'untuk', 'korban', 'bcn', 'jtg', 'sudah', 'saya', 'trmampsdh', 'lapgubanmasy', 'jtg', 'tks', 'rismaharini']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>['bu', 'risma', 'bantuan', 'korban', 'bcn', 'jtg', 'sy', 'trmampsdh', 'lapgubanmasy', 'jtg', 'tks', 'rismaharini']</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['bu', 'risma', 'bantu', 'korban', 'bcn', 'jtg', 'sy', 'trmampsdh', 'lapgubanmasy', 'jtg', 'tks', 'rismaharini']</t>
+          <t>['bu', 'risma', 'bantuan', 'korban', 'bcn', 'jtg', 'trmampsdh', 'lapgubanmasy', 'jtg', 'tks', 'rismaharini']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['bu', 'risma', 'bantu', 'korban', 'bcn', 'jtg', 'trmampsdh', 'lapgubanmasy', 'jtg', 'tks', 'rismaharini']</t>
         </is>
       </c>
     </row>
@@ -1479,10 +1624,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>22198</v>
+        <v>30575</v>
       </c>
       <c r="C30" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1496,15 +1641,20 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['rt', 'net', 'anak', 'jalanan', 'melukis', 'bareng', 'rismaharini', 'fikser', 'aryono']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>['net', 'anak', 'jalanan', 'melukis', 'bareng', 'rismaharini', 'fikser', 'aryono']</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>['net', 'anak', 'jalan', 'luk', 'bareng', 'rismaharini', 'fikser', 'aryono']</t>
         </is>
@@ -1515,10 +1665,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>22199</v>
+        <v>30576</v>
       </c>
       <c r="C31" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1532,17 +1682,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['rt', 'wali', 'kota', 'surabaya', 'rismaharini', 'menyatakan', 'tak', 'ada', 'pikiran', 'untuk', 'masuk', 'bursa', 'pilihan, gubernur', 'daerah, khusus, ibukota', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>['wali', 'kota', 'surabaya', 'rismaharini', 'nyatakan', 'pikiran', 'masuk', 'bursa', 'pilgub', 'dki', 'jakarta']</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['wali', 'kota', 'surabaya', 'rismaharini', 'nyata', 'pikir', 'masuk', 'bursa', 'pilgub', 'dki', 'jakarta']</t>
+          <t>['wali', 'kota', 'surabaya', 'rismaharini', 'pikiran', 'masuk', 'bursa', 'pilihan, gubernur', 'daerah, khusus, ibukota', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['wali', 'kota', 'surabaya', 'rismaharini', 'pikir', 'masuk', 'bursa', 'pilih gubernur', 'daerah khusus ibukota', 'jakarta']</t>
         </is>
       </c>
     </row>
@@ -1551,10 +1706,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>22200</v>
+        <v>30577</v>
       </c>
       <c r="C32" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1568,17 +1723,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'bagaimana', 'kabarnya']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>['assalamualaikum', 'gimana', 'kabarnya']</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'gimana', 'kabar']</t>
+          <t>['assalamualaikum', 'kabarnya']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'kabar']</t>
         </is>
       </c>
     </row>
@@ -1587,10 +1747,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>22201</v>
+        <v>30578</v>
       </c>
       <c r="C33" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1604,17 +1764,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['rt', 'apa', 'kata', 'rismaharini', 'soal', 'drama', 'pilihan, kepala, daerah', 'surabaya', 'simak', 'wawancaranya', 'bersama', 'sesaat', 'lagi']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>['rismaharini', 'drama', 'pilkada', 'surabaya', 'simak', 'wawancaranya']</t>
-        </is>
-      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['rismaharini', 'drama', 'pilkada', 'surabaya', 'simak', 'wawancara']</t>
+          <t>['rismaharini', 'drama', 'pilihan, kepala, daerah', 'surabaya', 'simak', 'wawancaranya']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['rismaharini', 'drama', 'pilih kepala daerah', 'surabaya', 'simak', 'wawancara']</t>
         </is>
       </c>
     </row>
@@ -1623,10 +1788,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>22202</v>
+        <v>30579</v>
       </c>
       <c r="C34" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1640,15 +1805,20 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['rt', 'rismawisnu', 'resmikan', 'posko', 'relawan', 'pemenangan', 'pertama', 'di', 'surabaya', 'rismaharini', 'via']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>['rismawisnu', 'resmikan', 'posko', 'relawan', 'pemenangan', 'surabaya', 'rismaharini', 'via']</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>['rismawisnu', 'resmi', 'posko', 'rawan', 'menang', 'surabaya', 'rismaharini', 'via']</t>
         </is>
@@ -1659,10 +1829,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>22203</v>
+        <v>30580</v>
       </c>
       <c r="C35" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1676,15 +1846,20 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'raya', 'idul', 'adha']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>['selamat', 'raya', 'idul', 'adha']</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>['selamat', 'raya', 'idul', 'adha']</t>
         </is>
@@ -1695,10 +1870,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>22204</v>
+        <v>30581</v>
       </c>
       <c r="C36" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1712,17 +1887,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['rt', 'harga', 'kebutuhan', 'pokok', 'di', 'surabaya', 'senin', 'rismaharini', 'hypertext, transfer, protocol']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>['harga', 'kebutuhan', 'pokok', 'surabaya', 'senin', 'rismaharini', 'http']</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['harga', 'butuh', 'pokok', 'surabaya', 'senin', 'rismaharini', 'http']</t>
+          <t>['harga', 'kebutuhan', 'pokok', 'surabaya', 'senin', 'rismaharini', 'hypertext, transfer, protocol']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['harga', 'butuh', 'pokok', 'surabaya', 'senin', 'rismaharini', 'hypertext transfer protocol']</t>
         </is>
       </c>
     </row>
@@ -1731,10 +1911,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>22205</v>
+        <v>30582</v>
       </c>
       <c r="C37" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1748,17 +1928,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['rt', 'tangsel', 'rismaharini', 'sebagai', 'wali, kota', 'seharusnya', 'ibu', 'membangkitkan', 'tim', 'kebanggaan', 'warga', 'surabaya', 'pokoknya']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['tangsel', 'rismaharini', 'walikota', 'membangkitkan', 'tim', 'kebanggaan', 'warga', 'surabaya', 'pokoe']</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['tangsel', 'rismaharini', 'walikota', 'bangkit', 'tim', 'bangga', 'warga', 'surabaya', 'pokoe']</t>
+          <t>['tangsel', 'rismaharini', 'wali, kota', 'membangkitkan', 'tim', 'kebanggaan', 'warga', 'surabaya', 'pokoknya']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['tangsel', 'rismaharini', 'wali kota', 'bangkit', 'tim', 'bangga', 'warga', 'surabaya', 'pokok']</t>
         </is>
       </c>
     </row>
@@ -1767,10 +1952,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>22206</v>
+        <v>30583</v>
       </c>
       <c r="C38" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1784,15 +1969,20 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['maaf', 'ada', 'yang', 'bajak', 'twitter', 'bu', 'risma']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>['maaf', 'bajak', 'twitter', 'bu', 'risma']</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>['maaf', 'bajak', 'twitter', 'bu', 'risma']</t>
         </is>
@@ -1803,10 +1993,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>22207</v>
+        <v>30584</v>
       </c>
       <c r="C39" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1820,15 +2010,20 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['tangsel', 'maaf', 'ada', 'yang', 'bajak', 'twitter', 'bu', 'risma']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>['tangsel', 'maaf', 'bajak', 'twitter', 'bu', 'risma']</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>['tangsel', 'maaf', 'bajak', 'twitter', 'bu', 'risma']</t>
         </is>
@@ -1839,10 +2034,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>22208</v>
+        <v>30585</v>
       </c>
       <c r="C40" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1856,15 +2051,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['rt', 'jalur', 'ini', 'padat', 'joyoboyo', 'gunungsari', 'arah', 'padat', 'mayangkara', 'arah', 'waru', 'padat', 'exit', 'tol']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>['jalur', 'padat', 'joyoboyo', 'gunungsari', 'arah', 'padat', 'mayangkara', 'arah', 'waru', 'padat', 'exit', 'tol']</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>['jalur', 'padat', 'joyoboyo', 'gunungsari', 'arah', 'padat', 'mayangkara', 'arah', 'waru', 'padat', 'exit', 'tol']</t>
         </is>
@@ -1875,10 +2075,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>22209</v>
+        <v>30586</v>
       </c>
       <c r="C41" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1892,15 +2092,20 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['rt', 'cj', 'rismaharini', 'mengajak', 'kalian', 'ikut', 'untuk', 'membangun', 'surabaya', 'yang', 'lebih', 'baik', 'yuk', 'ikutan']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>['cj', 'rismaharini', 'mengajak', 'membangun', 'surabaya', 'yuk', 'ikutan']</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>['cj', 'rismaharini', 'ajak', 'bangun', 'surabaya', 'yuk', 'ikut']</t>
         </is>
@@ -1911,10 +2116,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>22210</v>
+        <v>30587</v>
       </c>
       <c r="C42" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1928,15 +2133,20 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['dirgahayu', 'republik', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>['dirgahayu', 'republik', 'indonesia']</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>['dirgahayu', 'republik', 'indonesia']</t>
         </is>
@@ -1947,10 +2157,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>22211</v>
+        <v>30588</v>
       </c>
       <c r="C43" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1964,17 +2174,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['rt', 'jawa, tengah', 'dan', 'jawa, timur', 'makin', 'kering', 'warna', 'merah', 'adalah', 'daerah', 'yang', 'sudah', 'begitu', 'hari', 'tanpa', 'hujan', 'via', 'bnpb']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['jateng', 'jatim', 'kering', 'warna', 'merah', 'daerah', 'gt', 'hujan', 'via', 'bnpb']</t>
-        </is>
-      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['jateng', 'jatim', 'kering', 'warna', 'merah', 'daerah', 'gt', 'hujan', 'via', 'bnpb']</t>
+          <t>['jawa, tengah', 'jawa, timur', 'kering', 'warna', 'merah', 'daerah', 'hujan', 'via', 'bnpb']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['jawa tengah', 'jawa timur', 'kering', 'warna', 'merah', 'daerah', 'hujan', 'via', 'bnpb']</t>
         </is>
       </c>
     </row>
@@ -1983,10 +2198,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>22212</v>
+        <v>30589</v>
       </c>
       <c r="C44" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2000,17 +2215,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['rt', 'jawa, timur', 'selamat', 'kepada', 'kota', 'yang', 'telah', 'mendapat', 'anugerah', 'selamat', 'buat', 'bunda', 'rismaharini', 'hypertext, transfer, protocol']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['jatim', 'selamat', 'kpd', 'kota', 'anugerah', 'selamat', 'bunda', 'rismaharini', 'http']</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['jatim', 'selamat', 'kpd', 'kota', 'anugerah', 'selamat', 'bunda', 'rismaharini', 'http']</t>
+          <t>['jawa, timur', 'selamat', 'kota', 'anugerah', 'selamat', 'bunda', 'rismaharini', 'hypertext, transfer, protocol']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['jawa timur', 'selamat', 'kota', 'anugerah', 'selamat', 'bunda', 'rismaharini', 'hypertext transfer protocol']</t>
         </is>
       </c>
     </row>
@@ -2019,10 +2239,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>22213</v>
+        <v>30590</v>
       </c>
       <c r="C45" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2036,17 +2256,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['rt', 'ratusan', 'orang', 'tertipu', 'lagi', 'tahun', 'ini', 'tak', 'ada', 'seleksi', 'calon, pegawai, negeri, sipil', 'via']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['ratusan', 'orang', 'tertipu', 'seleksi', 'cpns', 'via']</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['ratus', 'orang', 'tipu', 'seleksi', 'cpns', 'via']</t>
+          <t>['ratusan', 'orang', 'tertipu', 'seleksi', 'calon, pegawai, negeri, sipil', 'via']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['ratus', 'orang', 'tipu', 'seleksi', 'calon pegawai negeri sipil', 'via']</t>
         </is>
       </c>
     </row>
@@ -2055,10 +2280,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>22214</v>
+        <v>30591</v>
       </c>
       <c r="C46" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2072,15 +2297,20 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['rt', 'risma', 'raih', 'penghargaan', 'tanda', 'kehormatan', 'bintang', 'jasa', 'dari', 'presiden', 'via']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>['risma', 'raih', 'penghargaan', 'tanda', 'kehormatan', 'bintang', 'jasa', 'presiden', 'via']</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>['risma', 'raih', 'harga', 'tanda', 'hormat', 'bintang', 'jasa', 'presiden', 'via']</t>
         </is>
@@ -2091,10 +2321,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>22215</v>
+        <v>30592</v>
       </c>
       <c r="C47" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2108,15 +2338,20 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['terima', 'kasih', 'banyak', 'kepada', 'bapak', 'penghargaan', 'ini', 'saya', 'dedikasikan', 'kepada', 'seluruh', 'masyarakat', 'kota', 'surabaya', 'saya', 'hanya', 'mewakili']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>['terima', 'kasih', 'penghargaan', 'dedikasikan', 'masyarakat', 'kota', 'surabaya', 'mewakili']</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>['terima', 'kasih', 'harga', 'dedikasi', 'masyarakat', 'kota', 'surabaya', 'wakil']</t>
         </is>
@@ -2127,10 +2362,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>22216</v>
+        <v>30593</v>
       </c>
       <c r="C48" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2144,15 +2379,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'semua', 'ayo', 'kita', 'mewujudkan', 'kota', 'surabaya', 'menjadi', 'bersih', 'dengan', 'cara', 'membuang', 'sampah', 'pada', 'tempatnya']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'ayo', 'mewujudkan', 'kota', 'surabaya', 'bersih', 'membuang', 'sampah', 'tempatnya']</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'ayo', 'wujud', 'kota', 'surabaya', 'bersih', 'buang', 'sampah', 'tempat']</t>
         </is>
@@ -2163,10 +2403,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>22217</v>
+        <v>30594</v>
       </c>
       <c r="C49" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
@@ -2176,15 +2416,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2195,10 +2440,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>22218</v>
+        <v>30595</v>
       </c>
       <c r="C50" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2212,15 +2457,20 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['rt', 'selamat', 'idul', 'fitri', 'rt', 'sama', 'sama', 'rismaharini']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>['selamat', 'idul', 'fitri', 'rismaharini']</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>['selamat', 'idul', 'fitri', 'rismaharini']</t>
         </is>
@@ -2231,10 +2481,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>22219</v>
+        <v>30596</v>
       </c>
       <c r="C51" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2248,15 +2498,20 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['rt', 'pilwali', 'surabaya', 'ditunda', 'jika', 'rismawhisnu', 'tak', 'punya', 'lawan', 'rismaharini', 'via']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>['pilwali', 'surabaya', 'ditunda', 'rismawhisnu', 'lawan', 'rismaharini', 'via']</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>['pilwali', 'surabaya', 'tunda', 'rismawhisnu', 'lawan', 'rismaharini', 'via']</t>
         </is>
@@ -2267,10 +2522,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>22220</v>
+        <v>30597</v>
       </c>
       <c r="C52" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2284,15 +2539,20 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'raya', 'idul', 'fitri']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>['selamat', 'raya', 'idul', 'fitri']</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>['selamat', 'raya', 'idul', 'fitri']</t>
         </is>
@@ -2303,10 +2563,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>22221</v>
+        <v>30598</v>
       </c>
       <c r="C53" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2320,17 +2580,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['terima, kasih']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['makasih']</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['makasih']</t>
+          <t>['terima, kasih']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['terima kasih']</t>
         </is>
       </c>
     </row>
@@ -2339,10 +2604,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>22222</v>
+        <v>30599</v>
       </c>
       <c r="C54" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2356,15 +2621,20 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['sugeng', 'riyadin', 'sedoyo']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>['sugeng', 'riyadin', 'sedoyo']</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>['sugeng', 'riyadin', 'doyo']</t>
         </is>
@@ -2375,10 +2645,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>22223</v>
+        <v>30600</v>
       </c>
       <c r="C55" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2392,17 +2662,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['hehe', 'maestro']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>['hehehe', 'maestro']</t>
-        </is>
-      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['hehehe', 'maestro']</t>
+          <t>['maestro']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['maestro']</t>
         </is>
       </c>
     </row>
@@ -2411,10 +2686,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>22224</v>
+        <v>30601</v>
       </c>
       <c r="C56" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2428,15 +2703,20 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['amin']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>['amin']</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>['amin']</t>
         </is>
@@ -2447,10 +2727,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>22225</v>
+        <v>30602</v>
       </c>
       <c r="C57" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2464,15 +2744,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>['awali', 'pagi', 'hari', 'ini', 'dengan', 'senyuman', 'trh']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>['awali', 'pagi', 'senyuman', 'trh']</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>['awal', 'pagi', 'senyum', 'trh']</t>
         </is>
@@ -2483,10 +2768,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>22226</v>
+        <v>30603</v>
       </c>
       <c r="C58" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2500,17 +2785,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['rt', 'cj', 'komisi, pemberantasan, korupsi', 'dan', 'wali, kota', 'surabaya', 'tri', 'risma', 'bagikan', 'mainan', 'anti', 'korupsi', 'kepada', 'anak', 'tk', 'saksikan', 'selengkapnya', 'hanya', 'di', 'rism']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>['cj', 'kpk', 'walikota', 'surabaya', 'tri', 'risma', 'bagikan', 'mainan', 'anti', 'korupsi', 'anak', 'tk', 'saksikan', 'selengkapnya', 'rism']</t>
-        </is>
-      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['cj', 'kpk', 'walikota', 'surabaya', 'tri', 'risma', 'bagi', 'main', 'anti', 'korupsi', 'anak', 'tk', 'saksi', 'lengkap', 'rism']</t>
+          <t>['cj', 'komisi, pemberantasan, korupsi', 'wali, kota', 'surabaya', 'tri', 'risma', 'bagikan', 'mainan', 'anti', 'korupsi', 'anak', 'tk', 'saksikan', 'selengkapnya', 'rism']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['cj', 'komisi berantas korupsi', 'wali kota', 'surabaya', 'tri', 'risma', 'bagi', 'main', 'anti', 'korupsi', 'anak', 'tk', 'saksi', 'lengkap', 'rism']</t>
         </is>
       </c>
     </row>
@@ -2519,10 +2809,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>22227</v>
+        <v>30604</v>
       </c>
       <c r="C59" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2536,17 +2826,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['rt', 'gabung', 'dengan', 'ri', 'rismaharini', 'rancang', 'pmainan', 'anti', 'korupsi', 'untuk', 'prasklh', 'untuk', 'surabaya', 'ribu', 'lagi', 'untuk', 'dibagikan']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>['gabung', 'ri', 'rismaharini', 'rancang', 'pmainan', 'anti', 'korupsi', 'prasklh', 'surabaya', 'rb', 'lg', 'dibagikan']</t>
-        </is>
-      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['gabung', 'ri', 'rismaharini', 'rancang', 'pmainan', 'anti', 'korupsi', 'prasklh', 'surabaya', 'rb', 'lg', 'bagi']</t>
+          <t>['gabung', 'ri', 'rismaharini', 'rancang', 'pmainan', 'anti', 'korupsi', 'prasklh', 'surabaya', 'ribu', 'dibagikan']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['gabung', 'ri', 'rismaharini', 'rancang', 'pmainan', 'anti', 'korupsi', 'prasklh', 'surabaya', 'ribu', 'bagi']</t>
         </is>
       </c>
     </row>
@@ -2555,10 +2850,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>22228</v>
+        <v>30605</v>
       </c>
       <c r="C60" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2572,15 +2867,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>['rt', 'anak', 'prasekolah', 'di', 'surabaya', 'senang', 'bermain', 'permainan', 'anti', 'korupsi', 'ri', 'rismaharini']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>['anak', 'prasekolah', 'surabaya', 'senang', 'bermain', 'permainan', 'anti', 'korupsi', 'ri', 'rismaharini']</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>['anak', 'prasekolah', 'surabaya', 'senang', 'main', 'main', 'anti', 'korupsi', 'ri', 'rismaharini']</t>
         </is>
@@ -2591,10 +2891,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>22229</v>
+        <v>30606</v>
       </c>
       <c r="C61" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2608,15 +2908,20 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['rt', 'koalisi', 'majapahit', 'rencanakan', 'ini', 'untuk', 'jegal', 'rismawisnu', 'rismaharini', 'via']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>['koalisi', 'majapahit', 'rencanakan', 'jegal', 'rismawisnu', 'rismaharini', 'via']</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>['koalisi', 'majapahit', 'rencana', 'jegal', 'rismawisnu', 'rismaharini', 'via']</t>
         </is>
@@ -2627,10 +2932,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>22230</v>
+        <v>30607</v>
       </c>
       <c r="C62" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2644,15 +2949,20 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>['semangat', 'menjalankan', 'puasa', 'hari', 'ini']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>['semangat', 'menjalankan', 'puasa']</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>['semangat', 'jalan', 'puasa']</t>
         </is>
@@ -2663,10 +2973,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>22231</v>
+        <v>30608</v>
       </c>
       <c r="C63" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2680,15 +2990,20 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>['jadwal', 'imsakiyah', 'untuk', 'wilayah', 'surabaya']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>['jadwal', 'imsakiyah', 'wilayah', 'surabaya']</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>['jadwal', 'imsakiyah', 'wilayah', 'surabaya']</t>
         </is>
@@ -2699,10 +3014,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>22232</v>
+        <v>30609</v>
       </c>
       <c r="C64" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2716,17 +3031,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['rt', 'wali, kota', 'risma', 'warga', 'surabaya', 'tidak', 'ada', 'yang', 'mengemis', 'rismaharini', 'via']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>['walikota', 'risma', 'warga', 'surabaya', 'ngemis', 'rismaharini', 'via']</t>
-        </is>
-      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['walikota', 'risma', 'warga', 'surabaya', 'ngemis', 'rismaharini', 'via']</t>
+          <t>['wali, kota', 'risma', 'warga', 'surabaya', 'mengemis', 'rismaharini', 'via']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['wali kota', 'risma', 'warga', 'surabaya', 'emis', 'rismaharini', 'via']</t>
         </is>
       </c>
     </row>
@@ -2735,10 +3055,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>22233</v>
+        <v>30610</v>
       </c>
       <c r="C65" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2752,17 +3072,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['marhaban', 'ya', 'ramadan']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>['marhaban', 'ramadhan']</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['marhaban', 'ramadhan']</t>
+          <t>['marhaban', 'ramadan']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['marhaban', 'ramadan']</t>
         </is>
       </c>
     </row>
@@ -2771,10 +3096,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>22234</v>
+        <v>30611</v>
       </c>
       <c r="C66" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2788,17 +3113,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>['rt', 'pemerintah, kota', 'surabaya', 'siap', 'seret', 'kasus', 'taman', 'remaja', 'surabaya', 'ke', 'meja', 'hijau', 'rismaharini', 'via']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>['pemkot', 'surabaya', 'seret', 'taman', 'remaja', 'surabaya', 'meja', 'hijau', 'rismaharini', 'via']</t>
-        </is>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['pemkot', 'surabaya', 'seret', 'taman', 'remaja', 'surabaya', 'meja', 'hijau', 'rismaharini', 'via']</t>
+          <t>['pemerintah, kota', 'surabaya', 'seret', 'taman', 'remaja', 'surabaya', 'meja', 'hijau', 'rismaharini', 'via']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['perintah kota', 'surabaya', 'seret', 'taman', 'remaja', 'surabaya', 'meja', 'hijau', 'rismaharini', 'via']</t>
         </is>
       </c>
     </row>
@@ -2807,10 +3137,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>22235</v>
+        <v>30612</v>
       </c>
       <c r="C67" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2824,17 +3154,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['rt', 'khoz', 'jadwal', 'imsakiyah', 'ramadan', 'untuk', 'wilayah', 'surabaya', 'dan', 'sekitarnya', 'rismaharini']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>['khoz', 'jadwal', 'imsakiyah', 'ramadhan', 'wilayah', 'surabaya', 'rismaharini']</t>
-        </is>
-      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['khoz', 'jadwal', 'imsakiyah', 'ramadhan', 'wilayah', 'surabaya', 'rismaharini']</t>
+          <t>['khoz', 'jadwal', 'imsakiyah', 'ramadan', 'wilayah', 'surabaya', 'rismaharini']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['khoz', 'jadwal', 'imsakiyah', 'ramadan', 'wilayah', 'surabaya', 'rismaharini']</t>
         </is>
       </c>
     </row>
@@ -2843,10 +3178,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>22236</v>
+        <v>30613</v>
       </c>
       <c r="C68" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
@@ -2856,15 +3191,20 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2875,10 +3215,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>22237</v>
+        <v>30614</v>
       </c>
       <c r="C69" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2892,17 +3232,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['rt', 'pemerintah, kota', 'surabaya', 'gelar', 'jambore', 'batu', 'akik', 'di', 'sip', 'rismaharini', 'via']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>['pemkot', 'surabaya', 'gelar', 'jambore', 'batu', 'akik', 'sib', 'rismaharini', 'via']</t>
-        </is>
-      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['pemkot', 'surabaya', 'gelar', 'jambore', 'batu', 'akik', 'sib', 'rismaharini', 'via']</t>
+          <t>['pemerintah, kota', 'surabaya', 'gelar', 'jambore', 'batu', 'akik', 'sip', 'rismaharini', 'via']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['perintah kota', 'surabaya', 'gelar', 'jambore', 'batu', 'akik', 'sip', 'rismaharini', 'via']</t>
         </is>
       </c>
     </row>
@@ -2911,10 +3256,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>22238</v>
+        <v>30615</v>
       </c>
       <c r="C70" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2928,17 +3273,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['oke']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>['ok']</t>
-        </is>
-      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['ok']</t>
+          <t>['oke']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['oke']</t>
         </is>
       </c>
     </row>
@@ -2947,10 +3297,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>22239</v>
+        <v>30616</v>
       </c>
       <c r="C71" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2964,15 +3314,20 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['semoga', 'semakin', 'jaya']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>['semoga', 'jaya']</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>['moga', 'jaya']</t>
         </is>
@@ -2983,10 +3338,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>22240</v>
+        <v>30617</v>
       </c>
       <c r="C72" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3000,15 +3355,20 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'jadi', 'kota', 'surabaya', 'ke']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>['selamat', 'kota', 'surabaya']</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>['selamat', 'kota', 'surabaya']</t>
         </is>
@@ -3019,10 +3379,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>22241</v>
+        <v>30618</v>
       </c>
       <c r="C73" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3036,17 +3396,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['rt', 'terima, kasih', 'baru', 'sadar', 'kami', 'saling', 'follow', 'rt', 'just', 'info', 'akun', 'bu', 'risma', 'adalah', 'rismaharini']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>['thanks', 'sadar', 'follow', 'just', 'info', 'akun', 'bu', 'risma', 'rismaharini']</t>
-        </is>
-      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['thanks', 'sadar', 'follow', 'just', 'info', 'akun', 'bu', 'risma', 'rismaharini']</t>
+          <t>['terima, kasih', 'sadar', 'follow', 'just', 'info', 'akun', 'bu', 'risma', 'rismaharini']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'sadar', 'follow', 'just', 'info', 'akun', 'bu', 'risma', 'rismaharini']</t>
         </is>
       </c>
     </row>
@@ -3055,10 +3420,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>22242</v>
+        <v>30619</v>
       </c>
       <c r="C74" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
@@ -3068,15 +3433,20 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3087,10 +3457,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>22243</v>
+        <v>30620</v>
       </c>
       <c r="C75" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3104,17 +3474,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>['rt', 'susilo, bambang, yudhoyono', 'ada', 'rismaharini', 'hadir', 'dalam', 'susilo, bambang, yudhoyono', 'fantastis', 'sabtu', 'mei', 'contact, person']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>['sby', 'rismaharini', 'hadir', 'sby', 'fantastik', 'sabtu', 'mei', 'cp']</t>
-        </is>
-      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['sby', 'rismaharini', 'hadir', 'sby', 'fantastik', 'sabtu', 'mei', 'cp']</t>
+          <t>['susilo, bambang, yudhoyono', 'rismaharini', 'hadir', 'susilo, bambang, yudhoyono', 'fantastis', 'sabtu', 'mei', 'contact, person']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['susilo bambang yudhoyono', 'rismaharini', 'hadir', 'susilo bambang yudhoyono', 'fantastis', 'sabtu', 'mei', 'contact person']</t>
         </is>
       </c>
     </row>
@@ -3123,10 +3498,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>22244</v>
+        <v>30621</v>
       </c>
       <c r="C76" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3140,15 +3515,20 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>['rt', 'bu', 'rismaharini', 'tolong', 'mbah', 'dul', 'dimodali', 'alat', 'keburu', 'dibuat', 'pencitraan', 'orang', 'partai', 'nanti', 'diliput']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>['bu', 'rismaharini', 'tolong', 'mbah', 'dul', 'dimodali', 'alat', 'keburu', 'pencitraan', 'orang', 'partai', 'diliput']</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>['bu', 'rismaharini', 'tolong', 'mbah', 'dul', 'modal', 'alat', 'keburu', 'citra', 'orang', 'partai', 'liput']</t>
         </is>
@@ -3159,10 +3539,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>22245</v>
+        <v>30622</v>
       </c>
       <c r="C77" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3176,17 +3556,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['rt', 'tahun', 'menambal', 'jalan', 'berlubang', 'di', 'surabaya', 'salut', 'sama', 'kakek', 'tukang', 'becak', 'ini', 'cc', 'yang, terhormat', 'ibu', 'risma', 'rismaharini', 'hypertext, transfer, protocol']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>['menambal', 'jalan', 'berlubang', 'surabaya', 'salut', 'kakek', 'tukang', 'becak', 'cc', 'yth', 'risma', 'rismaharini', 'http']</t>
-        </is>
-      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['tambal', 'jalan', 'lubang', 'surabaya', 'salut', 'kakek', 'tukang', 'becak', 'cc', 'yth', 'risma', 'rismaharini', 'http']</t>
+          <t>['menambal', 'jalan', 'berlubang', 'surabaya', 'salut', 'kakek', 'tukang', 'becak', 'cc', 'yang, terhormat', 'risma', 'rismaharini', 'hypertext, transfer, protocol']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['tambal', 'jalan', 'lubang', 'surabaya', 'salut', 'kakek', 'tukang', 'becak', 'cc', 'yang hormat', 'risma', 'rismaharini', 'hypertext transfer protocol']</t>
         </is>
       </c>
     </row>
@@ -3195,10 +3580,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>22246</v>
+        <v>30623</v>
       </c>
       <c r="C78" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3212,17 +3597,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['info', 'seputar', 'event', 'hari, ulang, tahun', 'festival', 'rujak', 'ulek', 'minggu', 'mei', 'jam', 'sepanjang', 'jlkembang', 'jepun', 'cidek', 'jmp']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>['info', 'seputar', 'event', 'hut', 'festival', 'rujak', 'ulek', 'minggu', 'mei', 'jam', 'jlkembang', 'jepun', 'cidek', 'jmp']</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['info', 'putar', 'event', 'hut', 'festival', 'rujak', 'ulek', 'minggu', 'mei', 'jam', 'jlkembang', 'jepun', 'cidek', 'jmp']</t>
+          <t>['info', 'seputar', 'event', 'hari, ulang, tahun', 'festival', 'rujak', 'ulek', 'minggu', 'mei', 'jam', 'jlkembang', 'jepun', 'cidek', 'jmp']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['info', 'putar', 'event', 'hari ulang tahun', 'festival', 'rujak', 'ulek', 'minggu', 'mei', 'jam', 'jlkembang', 'jepun', 'cidek', 'jmp']</t>
         </is>
       </c>
     </row>
@@ -3231,10 +3621,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>22247</v>
+        <v>30624</v>
       </c>
       <c r="C79" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3248,17 +3638,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>['rt', 'rismaharini', 'dunhill', 'warung, kopi', 'ayo', 'partisipasi', 'senayan', 'meijuni']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>['rismaharini', 'dunhill', 'warkop', 'ayo', 'partisipasi', 'senayan', 'meijuni']</t>
-        </is>
-      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['rismaharini', 'dunhill', 'warkop', 'ayo', 'partisipasi', 'senayan', 'meijuni']</t>
+          <t>['rismaharini', 'dunhill', 'warung, kopi', 'ayo', 'partisipasi', 'senayan', 'meijuni']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['rismaharini', 'dunhill', 'warung kopi', 'ayo', 'partisipasi', 'senayan', 'meijuni']</t>
         </is>
       </c>
     </row>
@@ -3267,10 +3662,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>22248</v>
+        <v>30625</v>
       </c>
       <c r="C80" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3284,17 +3679,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>['rt', 'gara', 'blusuk', 'rismaharini', 'pernah', 'patah', 'tangancerita', 'lengkapnya', 'menonton', 'di', 'tri', 'rismaharani', 'seninjm']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>['gara', 'blusukan', 'rismaharini', 'patah', 'tangancerita', 'lengkapnya', 'nonton', 'tri', 'rismaharani', 'seninjm']</t>
-        </is>
-      </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['gara', 'blusukan', 'rismaharini', 'patah', 'tangancerita', 'lengkap', 'nonton', 'tri', 'rismaharani', 'seninjm']</t>
+          <t>['gara', 'blusuk', 'rismaharini', 'patah', 'tangancerita', 'lengkapnya', 'menonton', 'tri', 'rismaharani', 'seninjm']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['gara', 'blusuk', 'rismaharini', 'patah', 'tangancerita', 'lengkap', 'tonton', 'tri', 'rismaharani', 'seninjm']</t>
         </is>
       </c>
     </row>
@@ -3303,10 +3703,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>22249</v>
+        <v>30626</v>
       </c>
       <c r="C81" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3320,15 +3720,20 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['rt', 'indra', 'siap', 'gotong', 'royong', 'bantu', 'bu', 'rismaharini']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>['indra', 'gotong', 'royong', 'bantu', 'bu', 'rismaharini']</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>['indra', 'gotong', 'royong', 'bantu', 'bu', 'rismaharini']</t>
         </is>
@@ -3339,10 +3744,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>22250</v>
+        <v>30627</v>
       </c>
       <c r="C82" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3356,15 +3761,20 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['assalamualaikum']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>['assalamualaikum']</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>['assalamualaikum']</t>
         </is>
@@ -3375,10 +3785,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>22251</v>
+        <v>30628</v>
       </c>
       <c r="C83" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3392,15 +3802,20 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>['warga', 'surabaya', 'atau', 'sekitarnya', 'anda', 'juga', 'bisa', 'mengakses', 'disdukcapil']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>['warga', 'surabaya', 'mengakses', 'disdukcapil']</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>['warga', 'surabaya', 'akses', 'disdukcapil']</t>
         </is>
@@ -3411,10 +3826,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>22252</v>
+        <v>30629</v>
       </c>
       <c r="C84" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3428,17 +3843,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['rt', 'parna', 'jempol', 'untuk', 'wali, kota', 'surabaya', 'bu', 'risma', 'rismaharinidisdukcapil', 'inisiatif', 'buat', 'web', 'pernikahan', 'warga', 'surabayadlm', 'up']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>['parna', 'jempol', 'tuk', 'walikota', 'surabaya', 'bu', 'risma', 'rismaharinidisdukcapil', 'inisiatif', 'web', 'pernikahan', 'warga', 'surabayadlm', 'up']</t>
-        </is>
-      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['parna', 'jempol', 'tuk', 'walikota', 'surabaya', 'bu', 'risma', 'rismaharinidisdukcapil', 'inisiatif', 'web', 'nikah', 'warga', 'surabayadlm', 'up']</t>
+          <t>['parna', 'jempol', 'wali, kota', 'surabaya', 'bu', 'risma', 'rismaharinidisdukcapil', 'inisiatif', 'web', 'pernikahan', 'warga', 'surabayadlm', 'up']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['parna', 'jempol', 'wali kota', 'surabaya', 'bu', 'risma', 'rismaharinidisdukcapil', 'inisiatif', 'web', 'nikah', 'warga', 'surabayadlm', 'up']</t>
         </is>
       </c>
     </row>
@@ -3447,10 +3867,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>22253</v>
+        <v>30630</v>
       </c>
       <c r="C85" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3464,15 +3884,20 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['rt', 'tri', 'rismahirini', 'sudah', 'sukses', 'perempuan', 'jangan', 'sewenangwenang', 'rismaharini', 'via']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>['tri', 'rismahirini', 'sukses', 'perempuan', 'sewenangwenang', 'rismaharini', 'via']</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>['tri', 'rismahirini', 'sukses', 'perempuan', 'sewenangwenang', 'rismaharini', 'via']</t>
         </is>
@@ -3483,10 +3908,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>22254</v>
+        <v>30631</v>
       </c>
       <c r="C86" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3500,15 +3925,20 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'kartini']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>['selamat', 'kartini']</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>['selamat', 'kartini']</t>
         </is>
@@ -3519,10 +3949,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>22255</v>
+        <v>30632</v>
       </c>
       <c r="C87" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3536,15 +3966,20 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>['rt', 'setinggi', 'apapun', 'jabatan', 'perempuan', 'tidak', 'boleh', 'membawanya', 'hingga', 'ke', 'rumah', 'wali', 'kota', 'rismaharini']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>['apapun', 'jabatan', 'perempuan', 'membawanya', 'rumah', 'wali', 'kota', 'rismaharini']</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>['apa', 'jabat', 'perempuan', 'bawa', 'rumah', 'wali', 'kota', 'rismaharini']</t>
         </is>
@@ -3555,10 +3990,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>22256</v>
+        <v>30633</v>
       </c>
       <c r="C88" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3572,15 +4007,20 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'selamat', 'beraktivitas', 'semua']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'selamat', 'beraktivitas']</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'selamat', 'aktivitas']</t>
         </is>
@@ -3591,10 +4031,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>22257</v>
+        <v>30634</v>
       </c>
       <c r="C89" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3608,15 +4048,20 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>['dari', 'surabaya', 'untuk', 'surabaya']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>['surabaya', 'surabaya']</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>['surabaya', 'surabaya']</t>
         </is>
@@ -3627,10 +4072,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>22258</v>
+        <v>30635</v>
       </c>
       <c r="C90" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3644,15 +4089,20 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['rt', 'dan', 'bebaskan', 'ri', 'ini', 'dari', 'mafia', 'bola', 'rismaharini']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>['bebaskan', 'ri', 'mafia', 'bola', 'rismaharini']</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>['bebas', 'ri', 'mafia', 'bola', 'rismaharini']</t>
         </is>
@@ -3663,10 +4113,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>22259</v>
+        <v>30636</v>
       </c>
       <c r="C91" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
@@ -3676,15 +4126,20 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3695,10 +4150,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>22260</v>
+        <v>30637</v>
       </c>
       <c r="C92" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3712,15 +4167,20 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['selamat', 'pagi', 'semua', 'jangan', 'lupa', 'baca', 'bissmilah', 'sebelum', 'memulai', 'aktivitas', 'di', 'minggu', 'ini']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>['selamat', 'pagi', 'lupa', 'baca', 'bissmilah', 'aktivitas', 'minggu']</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>['selamat', 'pagi', 'lupa', 'baca', 'bissmilah', 'aktivitas', 'minggu']</t>
         </is>
@@ -3731,10 +4191,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>22261</v>
+        <v>30638</v>
       </c>
       <c r="C93" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3748,15 +4208,20 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['pagi']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>['pagi']</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>['pagi']</t>
         </is>
@@ -3767,10 +4232,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>22262</v>
+        <v>30639</v>
       </c>
       <c r="C94" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3784,15 +4249,20 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['walaikumsalam', 'wr', 'wb']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>['walaikumsalam', 'wr', 'wb']</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>['walaikumsalam', 'wr', 'wb']</t>
         </is>
@@ -3803,10 +4273,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>22263</v>
+        <v>30640</v>
       </c>
       <c r="C95" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3820,15 +4290,20 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>['oke']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>['oke']</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>['oke']</t>
         </is>
@@ -3839,10 +4314,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>22264</v>
+        <v>30641</v>
       </c>
       <c r="C96" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
@@ -3852,15 +4327,20 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3871,10 +4351,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>22265</v>
+        <v>30642</v>
       </c>
       <c r="C97" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3888,15 +4368,20 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['rt', 'terima', 'kasih', 'lbu', 'rismaharini', 'sudah', 'menemui', 'bonek', 'hari', 'ini']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>['terima', 'kasih', 'lbu', 'rismaharini', 'menemui', 'bonek']</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>['terima', 'kasih', 'lbu', 'rismaharini', 'temu', 'bonek']</t>
         </is>
